--- a/PythonCode/InterfaceTest/resource/excel/cases.xlsx
+++ b/PythonCode/InterfaceTest/resource/excel/cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="204">
   <si>
     <t>case_id</t>
   </si>
@@ -272,13 +272,671 @@
 }</t>
   </si>
   <si>
-    <t>提现</t>
-  </si>
-  <si>
-    <t>验证提现成功</t>
-  </si>
-  <si>
-    <t>/futureloan/member/withdraw</t>
+    <t>新增项目</t>
+  </si>
+  <si>
+    <t>验证新增项目正常</t>
+  </si>
+  <si>
+    <t>/futureloan/loan/add</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":2,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>标题为数字，借款金额为6500，年利率为23.99，借款期限为45天，类型为2，竞标天数为2</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"55", 
+ "amount":6500,
+ "loan_rate":23.99,
+ "loan_term":45,
+ "loan_date_type":2,
+ "bidding_days":2
+ }</t>
+  </si>
+  <si>
+    <t>标题为汉字，借款金额为4900，年利率为0.01，借款期限为11天，类型为2，竞标天数为10</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"哈哈哈", 
+ "amount":4900,
+ "loan_rate":0.01,
+ "loan_term":11,
+ "loan_date_type":2,
+ "bidding_days":10
+ }</t>
+  </si>
+  <si>
+    <t>标题为特殊符号，借款金额为5300，年利率为10，借款期限为44天，类型为2，竞标天数为9</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"!@$#%$#!", 
+ "amount":5300,
+ "loan_rate":10,
+ "loan_term":44,
+ "loan_date_type":2,
+ "bidding_days":9
+ }</t>
+  </si>
+  <si>
+    <t>标题为字母+数字+汉字，借款金额为9900，年利率为2，借款期限为1月，类型为1，竞标天数为8</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a65啊啊啊测试", 
+ "amount":9900,
+ "loan_rate":2,
+ "loan_term":1,
+ "loan_date_type":1,
+ "bidding_days":8
+ }</t>
+  </si>
+  <si>
+    <t>标题为字母+数字，借款金额为8000，年利率为5，借款期限为2月，类型为1，竞标天数为7</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"acvs523", 
+ "amount":8000,
+ "loan_rate":5,
+ "loan_term":2,
+ "loan_date_type":1,
+ "bidding_days":7
+ }</t>
+  </si>
+  <si>
+    <t>标题为字母+汉字，借款金额为3200，年利率为18，借款期限为36月，类型为1，竞标天数为6</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和合法", 
+ "amount":3200,
+ "loan_rate":18,
+ "loan_term":36,
+ "loan_date_type":1,
+ "bidding_days":6
+ }</t>
+  </si>
+  <si>
+    <t>标题为字母+特殊符号，借款金额为7500，年利率为4，借款期限为35月，类型为1，竞标天数为5</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和合法", 
+ "amount":7500,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>错误的 id</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":$wrong_member_id$,
+ "title":"溜了溜了", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":2,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>id 为空</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id": null,
+ "title":"ac和合法", 
+ "amount":7500,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>标题为空</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title": null, 
+ "amount":7500,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>标题为空格</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title": " ", 
+ "amount":7500,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>标题为 空字符串</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title": "", 
+ "amount":7500,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>借款金额为 900</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount":900,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>借款金额为 0</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount":0,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>借款金额为 -1000</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount":-1000,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>借款金额为 1001</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount":1001,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>借款金额为 空</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount": null,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>借款金额为非数字</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount": "csa!@还好",
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>借款金额为浮点数 1000.01</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount": 1000.01,
+ "loan_rate":4,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>年利率为 空</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount": 9500,
+ "loan_rate":null,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>年利率为 0</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount": 9500,
+ "loan_rate":0,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>年利率为 三位小数 0.001</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount": 9500,
+ "loan_rate":0.001,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>年利率为 24.01</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount": 9500,
+ "loan_rate":24.01,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>年利率为 负数 -0.01</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount": 9500,
+ "loan_rate":-0.01,
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>年利率为 非数字</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"ac和撒合法", 
+ "amount": 9500,
+ "loan_rate":"cad$^理解撒",
+ "loan_term":35,
+ "loan_date_type":1,
+ "bidding_days":5
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 0 月，类型为 1</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":0,
+ "loan_date_type":1,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 9天，类型为 2</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":9,
+ "loan_date_type":2,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 37月，类型为 1</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":37,
+ "loan_date_type":1,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 46天，类型为 2</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":46,
+ "loan_date_type":2,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 1.1月，类型为 1</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":1.1,
+ "loan_date_type":1,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 10.1天，类型为 2</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10.1,
+ "loan_date_type":2,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 -1月，类型为 1</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":-1,
+ "loan_date_type":1,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 -10天，类型为 2</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":-10,
+ "loan_date_type":2,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 空</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":null,
+ "loan_date_type":2,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 非数字</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":"df$^&amp;哦哦哦le",
+ "loan_date_type":2,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款类型为 0</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":0,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款类型为 3</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":3,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款类型为 空</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":null,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款类型为 非数字</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":"oku(&amp;^苏",
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款类型为 负数 -1</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type": -1,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>借款期限为 0 天，类型为 2</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":0,
+ "loan_date_type": 2,
+ "bidding_days":1
+ }</t>
+  </si>
+  <si>
+    <t>竞标天数为 0</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":2,
+ "bidding_days":0
+ }</t>
+  </si>
+  <si>
+    <t>竞标天数为 空</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":2,
+ "bidding_days":null
+ }</t>
+  </si>
+  <si>
+    <t>竞标天数为 非数字</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":2,
+ "bidding_days":"已寄出#$d"
+ }</t>
+  </si>
+  <si>
+    <t>竞标天数为 浮点数 1.1</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":2,
+ "bidding_days": 1.1
+ }</t>
+  </si>
+  <si>
+    <t>竞标天数为 负数 -1</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"a", 
+ "amount":1000,
+ "loan_rate":24,
+ "loan_term":10,
+ "loan_date_type":2,
+ "bidding_days": -1
+ }</t>
+  </si>
+  <si>
+    <t>新增的项目信息与已存在的一致</t>
   </si>
   <si>
     <t>投资</t>
@@ -423,6 +1081,17 @@
   <si>
     <t>{"mobile_phone": "#new_phone#",
 "pwd": null}</t>
+  </si>
+  <si>
+    <t>{ 
+ "member_id":#member_id#,
+ "title":"!@$%$!", 
+ "amount":5300,
+ "loan_rate":10,
+ "loan_term":44,
+ "loan_date_type":2,
+ "bidding_days":9
+ }</t>
   </si>
 </sst>
 </file>
@@ -459,7 +1128,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,14 +1157,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,6 +1165,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,15 +1185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -518,7 +1194,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -542,10 +1218,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,16 +1248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,21 +1258,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,19 +1272,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,13 +1320,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,19 +1350,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,115 +1446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,13 +1466,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,6 +1529,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -871,26 +1553,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,10 +1571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -914,16 +1583,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -932,16 +1601,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -950,111 +1619,117 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1414,37 +2089,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="36.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1944444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.9074074074074" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.8888888888889" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.1944444444444" style="5" customWidth="1"/>
+    <col min="7" max="7" width="33.9074074074074" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1452,31 +2127,31 @@
       </c>
     </row>
     <row r="2" ht="144" customHeight="1" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>1003</v>
       </c>
       <c r="J2" t="s">
@@ -1484,31 +2159,31 @@
       </c>
     </row>
     <row r="3" ht="144" customHeight="1" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>1003</v>
       </c>
       <c r="J3" t="s">
@@ -1516,31 +2191,31 @@
       </c>
     </row>
     <row r="4" ht="144" customHeight="1" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>1003</v>
       </c>
       <c r="J4" t="s">
@@ -1548,31 +2223,31 @@
       </c>
     </row>
     <row r="5" ht="144" customHeight="1" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>1003</v>
       </c>
       <c r="J5" t="s">
@@ -1580,31 +2255,31 @@
       </c>
     </row>
     <row r="6" ht="144" customHeight="1" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>1003</v>
       </c>
       <c r="J6" t="s">
@@ -1612,31 +2287,31 @@
       </c>
     </row>
     <row r="7" ht="144" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1003</v>
       </c>
       <c r="J7" t="s">
@@ -1644,31 +2319,31 @@
       </c>
     </row>
     <row r="8" ht="144" customHeight="1" spans="1:10">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1003</v>
       </c>
       <c r="J8" t="s">
@@ -1676,31 +2351,31 @@
       </c>
     </row>
     <row r="9" ht="144" customHeight="1" spans="1:10">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>2</v>
       </c>
       <c r="J9" t="s">
@@ -1708,31 +2383,31 @@
       </c>
     </row>
     <row r="10" ht="144" customHeight="1" spans="1:10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>2</v>
       </c>
       <c r="J10" t="s">
@@ -1740,31 +2415,31 @@
       </c>
     </row>
     <row r="11" ht="144" customHeight="1" spans="1:10">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>2</v>
       </c>
       <c r="J11" t="s">
@@ -1772,31 +2447,31 @@
       </c>
     </row>
     <row r="12" ht="144" customHeight="1" spans="1:10">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>2</v>
       </c>
       <c r="J12" t="s">
@@ -1804,31 +2479,31 @@
       </c>
     </row>
     <row r="13" ht="144" customHeight="1" spans="1:10">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>2</v>
       </c>
       <c r="J13" t="s">
@@ -1836,31 +2511,31 @@
       </c>
     </row>
     <row r="14" ht="144" customHeight="1" spans="1:10">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>2</v>
       </c>
       <c r="J14" t="s">
@@ -1868,31 +2543,31 @@
       </c>
     </row>
     <row r="15" ht="144" customHeight="1" spans="1:10">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>2</v>
       </c>
       <c r="J15" t="s">
@@ -1909,14 +2584,1306 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="25.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="30.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="129.6" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="129.6" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="129.6" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="129.6" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="129.6" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="129.6" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="129.6" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="129.6" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="144" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="129.6" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="129.6" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="129.6" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="129.6" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="129.6" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="129.6" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="129.6" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="129.6" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="129.6" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="129.6" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="129.6" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="129.6" spans="1:8">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="129.6" spans="1:8">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="129.6" spans="1:8">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="129.6" spans="1:8">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="129.6" spans="1:8">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="129.6" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="129.6" spans="1:8">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="129.6" spans="1:8">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="129.6" spans="1:8">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="129.6" spans="1:8">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="129.6" spans="1:8">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="129.6" spans="1:8">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="129.6" spans="1:8">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="129.6" spans="1:8">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="129.6" spans="1:8">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="129.6" spans="1:8">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="129.6" spans="1:8">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="129.6" spans="1:8">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="129.6" spans="1:8">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="129.6" spans="1:8">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="129.6" spans="1:8">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="129.6" spans="1:8">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="129.6" spans="1:8">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="129.6" spans="1:8">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="129.6" spans="1:8">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="129.6" spans="1:8">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="129.6" spans="1:8">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="129.6" spans="2:8">
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1949,39 +3916,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="3" max="3" width="35.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="56.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.2222222222222" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.3333333333333" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1989,208 +3956,208 @@
       </c>
     </row>
     <row r="2" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="J5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="J8" t="s">
@@ -2206,58 +4173,59 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="G11" sqref="A1:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="35.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.2222222222222" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.3333333333333" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="86.4" customHeight="1" spans="1:9">
-      <c r="A2" s="2">
+    <row r="2" ht="129.6" spans="1:9">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2266,328 +4234,1241 @@
       <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="86.4" customHeight="1" spans="1:9">
-      <c r="A3" s="2">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="129.6" spans="1:9">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" ht="86.4" customHeight="1" spans="1:9">
-      <c r="A4" s="2">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="129.6" spans="1:9">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" ht="86.4" customHeight="1" spans="1:9">
-      <c r="A5" s="2">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="129.6" spans="1:9">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" ht="86.4" customHeight="1" spans="1:9">
-      <c r="A6" s="2">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="129.6" spans="1:9">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" ht="86.4" customHeight="1" spans="1:9">
-      <c r="A7" s="2">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="129.6" spans="1:9">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" ht="86.4" customHeight="1" spans="1:8">
-      <c r="A8" s="2">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="129.6" spans="1:8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="86.4" customHeight="1" spans="1:8">
-      <c r="A9" s="2">
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="129.6" spans="1:8">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="86.4" customHeight="1" spans="1:8">
-      <c r="A10" s="2">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="129.6" spans="1:8">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="86.4" customHeight="1" spans="1:8">
-      <c r="A11" s="2">
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="129.6" spans="1:8">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="86.4" customHeight="1" spans="1:8">
-      <c r="A12" s="2">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="129.6" spans="1:8">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="86.4" customHeight="1" spans="1:8">
-      <c r="A13" s="2">
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="129.6" spans="1:8">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="86.4" customHeight="1" spans="1:8">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="129.6" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="86.4" customHeight="1" spans="1:8">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="129.6" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="86.4" customHeight="1" spans="1:8">
-      <c r="A16" s="2">
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="129.6" spans="1:8">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="129.6" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="129.6" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="129.6" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="129.6" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="129.6" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="129.6" spans="1:8">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="129.6" spans="1:8">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="129.6" spans="1:8">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="129.6" spans="1:8">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="129.6" spans="1:8">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="129.6" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="129.6" spans="1:8">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="129.6" spans="1:8">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="129.6" spans="1:8">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="129.6" spans="1:8">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="129.6" spans="1:8">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="129.6" spans="1:8">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="129.6" spans="1:8">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="129.6" spans="1:8">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="129.6" spans="1:8">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="129.6" spans="1:8">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="129.6" spans="1:8">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="129.6" spans="1:8">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="129.6" spans="1:8">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="129.6" spans="1:8">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="129.6" spans="1:8">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="129.6" spans="1:8">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="129.6" spans="1:8">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="129.6" spans="1:8">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="129.6" spans="1:8">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="129.6" spans="1:8">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="129.6" spans="1:8">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="129.6" spans="2:8">
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2608,39 +5489,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7777777777778" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.4444444444444" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.7777777777778" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -2648,58 +5529,58 @@
       </c>
     </row>
     <row r="2" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
+      <c r="B2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
+      <c r="B3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="2">
+        <v>159</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -2707,28 +5588,28 @@
       </c>
     </row>
     <row r="4" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>69</v>
+      <c r="B4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="2">
+        <v>159</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="J4" t="s">
@@ -2736,28 +5617,28 @@
       </c>
     </row>
     <row r="5" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="2">
+        <v>159</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -2765,28 +5646,28 @@
       </c>
     </row>
     <row r="6" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
+      <c r="B6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="2">
+        <v>159</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -2794,28 +5675,28 @@
       </c>
     </row>
     <row r="7" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
+      <c r="B7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="2">
+        <v>159</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="J7" t="s">
@@ -2823,28 +5704,28 @@
       </c>
     </row>
     <row r="8" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
+      <c r="B8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="2">
+        <v>159</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="J8" t="s">
@@ -2852,28 +5733,28 @@
       </c>
     </row>
     <row r="9" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
+      <c r="B9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="2">
+        <v>159</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="J9" t="s">
@@ -2881,28 +5762,28 @@
       </c>
     </row>
     <row r="10" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>81</v>
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="2">
+        <v>159</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="J10" t="s">
@@ -2910,28 +5791,28 @@
       </c>
     </row>
     <row r="11" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>83</v>
+      <c r="B11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="2">
+        <v>159</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="J11" t="s">
@@ -2939,28 +5820,28 @@
       </c>
     </row>
     <row r="12" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
+      <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="2">
+        <v>159</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="J12" t="s">
@@ -2968,28 +5849,28 @@
       </c>
     </row>
     <row r="13" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>87</v>
+      <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="2">
+        <v>159</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="J13" t="s">
@@ -2997,28 +5878,28 @@
       </c>
     </row>
     <row r="14" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>89</v>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="2">
+        <v>159</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="J14" t="s">
@@ -3026,28 +5907,28 @@
       </c>
     </row>
     <row r="15" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>91</v>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="2">
+        <v>159</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="J15" t="s">
@@ -3055,28 +5936,28 @@
       </c>
     </row>
     <row r="16" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>93</v>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="2">
+        <v>159</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="J16" t="s">
@@ -3100,39 +5981,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5555555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6666666666667" style="5" customWidth="1"/>
+    <col min="4" max="4" width="42" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="5" customWidth="1"/>
+    <col min="6" max="6" width="32.5555555555556" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.7777777777778" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -3140,58 +6021,58 @@
       </c>
     </row>
     <row r="2" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
+      <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
+      <c r="B3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="2">
+        <v>191</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -3199,28 +6080,28 @@
       </c>
     </row>
     <row r="4" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>101</v>
+      <c r="B4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="2">
+        <v>191</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="J4" t="s">
@@ -3228,28 +6109,28 @@
       </c>
     </row>
     <row r="5" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>103</v>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="2">
+        <v>191</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -3257,28 +6138,28 @@
       </c>
     </row>
     <row r="6" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>105</v>
+      <c r="B6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="2">
+        <v>191</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -3286,28 +6167,28 @@
       </c>
     </row>
     <row r="7" ht="86.4" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>107</v>
+      <c r="B7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="2">
+        <v>191</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="J7" t="s">

--- a/PythonCode/InterfaceTest/resource/excel/cases.xlsx
+++ b/PythonCode/InterfaceTest/resource/excel/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="381">
   <si>
     <t>case_id</t>
   </si>
@@ -270,6 +270,904 @@
     "member_id": "#member_id#", 
     "amount": 500001
 }</t>
+  </si>
+  <si>
+    <t>审核项目</t>
+  </si>
+  <si>
+    <t>验证审核通过正常</t>
+  </si>
+  <si>
+    <t>/futureloan/loan/audit</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": #status_1#,
+"approved_or_not": true
+ }</t>
+  </si>
+  <si>
+    <t>审核不通过</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": #status_1#,
+"approved_or_not": false
+ }</t>
+  </si>
+  <si>
+    <t>status为2，审核通过</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": $status_2$,
+"approved_or_not": true
+ }</t>
+  </si>
+  <si>
+    <t>status为2，审核不通过</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": $status_2$,
+"approved_or_not": false
+ }</t>
+  </si>
+  <si>
+    <t>status为3，审核通过</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": $status_3$,
+"approved_or_not": true
+ }</t>
+  </si>
+  <si>
+    <t>status为3，审核不通过</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": $status_3$,
+"approved_or_not": false
+ }</t>
+  </si>
+  <si>
+    <t>status为4，审核通过</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": $status_4$,
+"approved_or_not": true
+ }</t>
+  </si>
+  <si>
+    <t>status为4，审核不通过</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": $status_4$,
+"approved_or_not": false
+ }</t>
+  </si>
+  <si>
+    <t>审核状态为空</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": #status_1#,
+"approved_or_not": null
+ }</t>
+  </si>
+  <si>
+    <t>审核状态为非 布尔值</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": #status_1#,
+"approved_or_not": "5sa就!^"
+ }</t>
+  </si>
+  <si>
+    <t>审核状态为字符串类型的 true</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": #status_1#,
+"approved_or_not": "true"
+ }</t>
+  </si>
+  <si>
+    <t>审核状态为字符串类型的 false</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": #status_1#,
+"approved_or_not": "false"
+ }</t>
+  </si>
+  <si>
+    <t>项目 id 为空</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id":null,
+"approved_or_not": true
+ }</t>
+  </si>
+  <si>
+    <t>项目 id 为 非数字</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id":"cs5q!@才",
+"approved_or_not": true
+ }</t>
+  </si>
+  <si>
+    <t>审核不存在的项目</t>
+  </si>
+  <si>
+    <t>{ 
+"loan_id": $not_exist_loan_id$,
+"approved_or_not": true
+ }</t>
+  </si>
+  <si>
+    <t>非管理员权限审核</t>
+  </si>
+  <si>
+    <t>{
+    "Content-Type":"application/json",
+    "X-Lemonban-Media-Type":"lemonban.v2", "Authorization":"$not_admin$"
+}</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>验证投资成功</t>
+  </si>
+  <si>
+    <t>/futureloan/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":400}</t>
+  </si>
+  <si>
+    <t>投资金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":-1}</t>
+  </si>
+  <si>
+    <t>投资金额为小数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":400.1}</t>
+  </si>
+  <si>
+    <t>投资金额大于标的余额</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":$loan_id$,"amount":$greater_loan_balance$}</t>
+  </si>
+  <si>
+    <t>投资金额等于 标的余额</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":$loan_id$,"amount":$loan_balance$}</t>
+  </si>
+  <si>
+    <t>投资金额刚好等于用户余额</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":$user_balance$}</t>
+  </si>
+  <si>
+    <t>错误的用户名</t>
+  </si>
+  <si>
+    <t>{"member_id":$wrong_member_id$,"loan_id":#loan_id#,"amount":400}</t>
+  </si>
+  <si>
+    <t>投资竞标完的项目</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":$finished_loan_id$,"amount":400}</t>
+  </si>
+  <si>
+    <t>投资金额为数字字母下划线汉字组合</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":"6523c!汉+_"}</t>
+  </si>
+  <si>
+    <t>投资不存在的项目</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":$not_exist_loan_id$,"amount":400}</t>
+  </si>
+  <si>
+    <t>投资金额为101（不被100整除）</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":101}</t>
+  </si>
+  <si>
+    <t>投资金额为99（刚好小于）</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":99}</t>
+  </si>
+  <si>
+    <t>投资金额为0</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":0}</t>
+  </si>
+  <si>
+    <t>投资金额为-100（因为100刚好刚好能被整除）</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":-100}</t>
+  </si>
+  <si>
+    <t>投资金额为 200.00(小数点后两个0)</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":200.00}</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>验证登录成功</t>
+  </si>
+  <si>
+    <t>/futureloan/member/login</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#new_phone#",
+"pwd": "#pwd#"}</t>
+  </si>
+  <si>
+    <t>不存在的手机号码</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "11146975431",
+"pwd": "#pwd#"}</t>
+  </si>
+  <si>
+    <t>未注册的手机号码</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#not_exist_phone#",
+"pwd": "#pwd#"}</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#new_phone#",
+"pwd": "999887756"}</t>
+  </si>
+  <si>
+    <t>手机号码为空</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": null,
+"pwd": "#pwd#"}</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "#new_phone#",
+"pwd": null}</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
+    <t>验证提现功能正常</t>
+  </si>
+  <si>
+    <t>/futureloan/member/withdraw</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": 500.00
+}</t>
+  </si>
+  <si>
+    <t>错误的 id</t>
+  </si>
+  <si>
+    <t>{"member_id": $wrong_member_id$,
+ "amount": 1000
+}</t>
+  </si>
+  <si>
+    <t>id 为空</t>
+  </si>
+  <si>
+    <t>{"member_id": null,
+ "amount": 500
+}</t>
+  </si>
+  <si>
+    <t>提现金额 为 2位小数</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": 1000.99
+}</t>
+  </si>
+  <si>
+    <t>提现金额为 3位小数</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": 1111.111
+}</t>
+  </si>
+  <si>
+    <t>提现金额为 空</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": null
+}</t>
+  </si>
+  <si>
+    <t>提现金额 为非数字</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": "sc汗@^"
+}</t>
+  </si>
+  <si>
+    <t>提现金额刚好等于用户余额</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": 6300
+}</t>
+  </si>
+  <si>
+    <t>提现金额刚好大于用户余额</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": 6300.01
+}</t>
+  </si>
+  <si>
+    <t>提现金额刚好小于用户余额</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": 6299.99
+}</t>
+  </si>
+  <si>
+    <t>提现金额刚好等于 50w</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": $euqal_50w$
+}</t>
+  </si>
+  <si>
+    <t>提现金额刚好大于50w</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": $greater_50w$
+}</t>
+  </si>
+  <si>
+    <t>提现金额刚好小于50w</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": $less_50w$
+}</t>
+  </si>
+  <si>
+    <t>提现金额为 负数</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": -500
+}</t>
+  </si>
+  <si>
+    <t>提现金额为 0</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": 0
+}</t>
+  </si>
+  <si>
+    <t>提现金额为 0.01</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": 0.01
+}</t>
+  </si>
+  <si>
+    <t>提现金额为字符串格式</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,
+ "amount": "500"
+}</t>
+  </si>
+  <si>
+    <t>更新会员信息</t>
+  </si>
+  <si>
+    <t>正常更新昵称</t>
+  </si>
+  <si>
+    <t>/futureloan/member/update</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "檬檬"
+ }</t>
+  </si>
+  <si>
+    <t>昵称与当前昵称一致</t>
+  </si>
+  <si>
+    <t>{ "member_id": $wrong_member_id$,
+ "reg_name": "檬檬aaa"
+ }</t>
+  </si>
+  <si>
+    <t>{ "member_id": null,
+ "reg_name": "檬檬bbb"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为1位纯数字</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "2"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为3位纯字母</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "sdf"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为4位纯特殊符号</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "!@#$"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为5位数字+汉字</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "56哈哈哈"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为7位数字+特殊符号</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "156!@#$"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为8位数字+汉字+字母</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "56sdfgx就"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为9位数字+汉字+特殊符号</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "56sd就!@#$"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为10位数字+字母+特殊符号</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "564lem!123"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为10位数字+字母+汉字+特殊符号</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "564看em!@#@"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为5位汉字+字母</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "sdfz哦"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为5位汉字+特殊符号</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "!@#$哦"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为5位汉字+字母+特殊符号</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "sd!考虑"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为5位字母+特殊符号</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "df!@#"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为空格</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": " "
+ }</t>
+  </si>
+  <si>
+    <t>昵称为空</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": null
+ }</t>
+  </si>
+  <si>
+    <t>昵称前面加空格</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": " df!@#"
+ }</t>
+  </si>
+  <si>
+    <t>昵称中间加空格</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "df !@#"
+ }</t>
+  </si>
+  <si>
+    <t>昵称后面加空格</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "df!@# "
+ }</t>
+  </si>
+  <si>
+    <t>昵称为11位</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "564sdf!@#$噢"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为6位数字+字母</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "Lemon8"
+ }</t>
+  </si>
+  <si>
+    <t>昵称为空字符串</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": ""
+ }</t>
+  </si>
+  <si>
+    <t>昵称与其他用户一致</t>
+  </si>
+  <si>
+    <t>{ "member_id": #member_id#,
+ "reg_name": "$equal_other_user$"
+ }</t>
+  </si>
+  <si>
+    <t>获取单个用户信息</t>
+  </si>
+  <si>
+    <t>验证获取用户信息功能正常</t>
+  </si>
+  <si>
+    <t>/futureloan/member/#member_id#/info</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>获取其他用户的 信息</t>
+  </si>
+  <si>
+    <t>/futureloan/member/$other_user_info$/info</t>
+  </si>
+  <si>
+    <t>/futureloan/member/null/info</t>
+  </si>
+  <si>
+    <t>id 为 非数字</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/futureloan/member/"scsa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!%&amp;"/info</t>
+    </r>
+  </si>
+  <si>
+    <t>id 为 0</t>
+  </si>
+  <si>
+    <t>/futureloan/member/0/info</t>
+  </si>
+  <si>
+    <t>id 为负数</t>
+  </si>
+  <si>
+    <t>/futureloan/member/-42/info</t>
+  </si>
+  <si>
+    <t>id 为 浮点数</t>
+  </si>
+  <si>
+    <t>/futureloan/member/99.1/info</t>
+  </si>
+  <si>
+    <t>id 不存在</t>
+  </si>
+  <si>
+    <t>/futureloan/member/$not_exist_member_id$/info</t>
+  </si>
+  <si>
+    <t>管理员获取 信息（注：这个是多余的，测试用的）</t>
+  </si>
+  <si>
+    <t>/futureloan/member/#admin_id#/info</t>
+  </si>
+  <si>
+    <t>{
+    "Content-Type":"application/json",
+    "X-Lemonban-Media-Type":"lemonban.v2",
+    "Authorization":"$admin$"
+}</t>
+  </si>
+  <si>
+    <t>获取项目列表</t>
+  </si>
+  <si>
+    <t>验证获取列表功能正常</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=$ramdom_index$&amp;pageSize=$ramdom_size$</t>
+  </si>
+  <si>
+    <t>当页索引缺省</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageSize=11</t>
+  </si>
+  <si>
+    <t>每页大小缺省</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=1</t>
+  </si>
+  <si>
+    <t>都缺省</t>
+  </si>
+  <si>
+    <t>/futureloan/loans</t>
+  </si>
+  <si>
+    <t>索引为负数</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=-1</t>
+  </si>
+  <si>
+    <t>索引为非数字</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/futureloan/loans?pageIndex="dsa!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>索引为空</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=null</t>
+  </si>
+  <si>
+    <t>索引为 浮点数</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=1.1</t>
+  </si>
+  <si>
+    <t>索引为 0</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=0</t>
+  </si>
+  <si>
+    <t>大小为负数</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageSize=-11</t>
+  </si>
+  <si>
+    <t>大小为非数字</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/futureloan/loans?pageSize="ocs*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>大小为空</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageSize=null</t>
+  </si>
+  <si>
+    <t>大小为 浮点数</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageSize=11.2</t>
+  </si>
+  <si>
+    <t>大小为 0</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageSize=0</t>
+  </si>
+  <si>
+    <t>每页大小刚好等于项目总数</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=1&amp;pageSize=$equal_loan_count$</t>
+  </si>
+  <si>
+    <t>每页大小大于项目总数</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=1&amp;pageSize=$more_page$</t>
+  </si>
+  <si>
+    <t>索引超过范围</t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=$more_index$&amp;pageSize=$ramdom_size$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">索引和大小同时为 0 </t>
+  </si>
+  <si>
+    <t>/futureloan/loans?pageIndex=0&amp;pageSize=0</t>
   </si>
   <si>
     <t>新增项目</t>
@@ -325,7 +1223,7 @@
   <si>
     <t>{ 
  "member_id":#member_id#,
- "title":"!@$#%$#!", 
+ "title":"!@$%$!", 
  "amount":5300,
  "loan_rate":10,
  "loan_term":44,
@@ -390,9 +1288,6 @@
  }</t>
   </si>
   <si>
-    <t>错误的 id</t>
-  </si>
-  <si>
     <t>{ 
  "member_id":$wrong_member_id$,
  "title":"溜了溜了", 
@@ -404,9 +1299,6 @@
  }</t>
   </si>
   <si>
-    <t>id 为空</t>
-  </si>
-  <si>
     <t>{ 
  "member_id": null,
  "title":"ac和合法", 
@@ -938,161 +1830,6 @@
   <si>
     <t>新增的项目信息与已存在的一致</t>
   </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>验证投资成功</t>
-  </si>
-  <si>
-    <t>/futureloan/member/invest</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":400}</t>
-  </si>
-  <si>
-    <t>投资金额为负数</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":-1}</t>
-  </si>
-  <si>
-    <t>投资金额为小数</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":400.1}</t>
-  </si>
-  <si>
-    <t>投资金额大于标的余额</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":$loan_id$,"amount":$greater_loan_balance$}</t>
-  </si>
-  <si>
-    <t>投资金额等于 标的余额</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":$loan_id$,"amount":$loan_balance$}</t>
-  </si>
-  <si>
-    <t>投资金额刚好等于用户余额</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":$user_balance$}</t>
-  </si>
-  <si>
-    <t>错误的用户名</t>
-  </si>
-  <si>
-    <t>{"member_id":$wrong_member_id$,"loan_id":#loan_id#,"amount":400}</t>
-  </si>
-  <si>
-    <t>投资竞标完的项目</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":$finished_loan_id$,"amount":400}</t>
-  </si>
-  <si>
-    <t>投资金额为数字字母下划线汉字组合</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":"6523c!汉+_"}</t>
-  </si>
-  <si>
-    <t>投资不存在的项目</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":$not_exist_loan_id$,"amount":400}</t>
-  </si>
-  <si>
-    <t>投资金额为101（不被100整除）</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":101}</t>
-  </si>
-  <si>
-    <t>投资金额为99（刚好小于）</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":99}</t>
-  </si>
-  <si>
-    <t>投资金额为0</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":0}</t>
-  </si>
-  <si>
-    <t>投资金额为-100（因为100刚好刚好能被整除）</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":-100}</t>
-  </si>
-  <si>
-    <t>投资金额为 200.00(小数点后两个0)</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":200.00}</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>验证登录成功</t>
-  </si>
-  <si>
-    <t>/futureloan/member/login</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "#new_phone#",
-"pwd": "#pwd#"}</t>
-  </si>
-  <si>
-    <t>不存在的手机号码</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "11146975431",
-"pwd": "#pwd#"}</t>
-  </si>
-  <si>
-    <t>未注册的手机号码</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "#not_exist_phone#",
-"pwd": "#pwd#"}</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "#new_phone#",
-"pwd": "999887756"}</t>
-  </si>
-  <si>
-    <t>手机号码为空</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": null,
-"pwd": "#pwd#"}</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "#new_phone#",
-"pwd": null}</t>
-  </si>
-  <si>
-    <t>{ 
- "member_id":#member_id#,
- "title":"!@$%$!", 
- "amount":5300,
- "loan_rate":10,
- "loan_term":44,
- "loan_date_type":2,
- "bidding_days":9
- }</t>
-  </si>
 </sst>
 </file>
 
@@ -1100,11 +1837,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,23 +1856,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.45"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,6 +1891,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,16 +1918,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,26 +1958,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1225,14 +1989,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1240,9 +1996,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,10 +2012,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1272,25 +2039,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,7 +2081,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,19 +2177,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,55 +2207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,49 +2219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,15 +2296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1549,6 +2307,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1571,10 +2338,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1583,137 +2350,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1723,14 +2490,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1802,7 +2587,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2089,9 +2874,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="36.8888888888889" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.1944444444444" style="5" customWidth="1"/>
-    <col min="7" max="7" width="33.9074074074074" style="5" customWidth="1"/>
+    <col min="4" max="4" width="36.8888888888889" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.1944444444444" style="11" customWidth="1"/>
+    <col min="7" max="7" width="33.9074074074074" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1" spans="1:10">
@@ -2136,7 +2921,7 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2168,7 +2953,7 @@
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2200,7 +2985,7 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2232,7 +3017,7 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2264,7 +3049,7 @@
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2296,7 +3081,7 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2328,7 +3113,7 @@
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2360,7 +3145,7 @@
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2392,7 +3177,7 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2424,7 +3209,7 @@
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2456,7 +3241,7 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2488,7 +3273,7 @@
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2520,7 +3305,7 @@
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2552,7 +3337,7 @@
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2586,7 +3371,7 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2637,13 +3422,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>287</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -2652,7 +3437,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -2664,13 +3449,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>290</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -2679,7 +3464,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -2691,13 +3476,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>292</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -2706,7 +3491,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -2718,13 +3503,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>294</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -2733,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -2745,13 +3530,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>296</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -2760,7 +3545,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -2772,13 +3557,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>298</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -2787,7 +3572,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -2799,13 +3584,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>300</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -2814,7 +3599,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -2825,13 +3610,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>302</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -2840,7 +3625,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -2851,13 +3636,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>145</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -2866,7 +3651,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -2877,13 +3662,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>147</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -2892,7 +3677,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -2903,13 +3688,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>306</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -2918,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -2929,13 +3714,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>308</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -2944,7 +3729,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -2955,13 +3740,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>310</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -2970,7 +3755,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -2981,13 +3766,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>312</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -2996,7 +3781,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -3007,13 +3792,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>314</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -3022,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -3033,13 +3818,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -3048,7 +3833,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3059,13 +3844,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -3074,7 +3859,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -3085,13 +3870,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -3100,7 +3885,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>97</v>
+        <v>321</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -3111,13 +3896,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -3126,7 +3911,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>323</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -3137,13 +3922,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -3152,7 +3937,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -3163,13 +3948,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -3178,7 +3963,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
+        <v>327</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -3189,13 +3974,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -3204,7 +3989,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -3215,13 +4000,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -3230,7 +4015,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>107</v>
+        <v>331</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -3241,13 +4026,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -3256,7 +4041,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -3267,13 +4052,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -3282,7 +4067,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>111</v>
+        <v>335</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -3293,13 +4078,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -3308,7 +4093,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -3319,13 +4104,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -3334,7 +4119,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -3345,13 +4130,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -3360,7 +4145,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>117</v>
+        <v>341</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -3371,13 +4156,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -3386,7 +4171,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>119</v>
+        <v>343</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -3397,13 +4182,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -3412,7 +4197,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -3423,13 +4208,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
@@ -3438,7 +4223,7 @@
         <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -3449,13 +4234,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
@@ -3464,7 +4249,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -3475,13 +4260,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -3490,7 +4275,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>127</v>
+        <v>351</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -3501,13 +4286,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
@@ -3516,7 +4301,7 @@
         <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>129</v>
+        <v>353</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -3527,13 +4312,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -3542,7 +4327,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -3553,13 +4338,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
@@ -3568,7 +4353,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -3579,13 +4364,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
@@ -3594,7 +4379,7 @@
         <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -3605,13 +4390,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -3620,7 +4405,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -3631,13 +4416,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
@@ -3646,7 +4431,7 @@
         <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>139</v>
+        <v>363</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -3657,13 +4442,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -3672,7 +4457,7 @@
         <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -3683,13 +4468,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
@@ -3698,7 +4483,7 @@
         <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>143</v>
+        <v>367</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -3709,13 +4494,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -3724,7 +4509,7 @@
         <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>145</v>
+        <v>369</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -3735,13 +4520,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -3750,7 +4535,7 @@
         <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -3761,13 +4546,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -3776,7 +4561,7 @@
         <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>149</v>
+        <v>373</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -3787,13 +4572,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -3802,7 +4587,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>151</v>
+        <v>375</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -3813,13 +4598,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -3828,7 +4613,7 @@
         <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3839,13 +4624,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -3854,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>155</v>
+        <v>379</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -3862,13 +4647,13 @@
     </row>
     <row r="49" ht="129.6" spans="2:8">
       <c r="B49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -3877,7 +4662,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -3892,14 +4677,478 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="36.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="32.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="33.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="30.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="86.4" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="86.4" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="86.4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="86.4" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="86.4" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="86.4" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="86.4" spans="1:9">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" ht="86.4" spans="1:9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="86.4" spans="1:9">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" ht="86.4" spans="1:9">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" ht="86.4" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="86.4" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="86.4" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="86.4" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="86.4" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="100.8" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3910,17 +5159,17 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C8" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="3" max="3" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="56.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.2222222222222" style="5" customWidth="1"/>
-    <col min="6" max="6" width="29" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.3333333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="11" customWidth="1"/>
+    <col min="4" max="4" width="56.3333333333333" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.2222222222222" style="11" customWidth="1"/>
+    <col min="6" max="6" width="29" style="11" customWidth="1"/>
+    <col min="7" max="7" width="34.3333333333333" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1" spans="1:10">
@@ -3965,7 +5214,7 @@
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3995,7 +5244,7 @@
       <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4025,7 +5274,7 @@
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4055,7 +5304,7 @@
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4085,7 +5334,7 @@
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4115,7 +5364,7 @@
       <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4145,7 +5394,7 @@
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4173,20 +5422,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="C50" workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:J49"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="35.3333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.2222222222222" style="5" customWidth="1"/>
-    <col min="6" max="6" width="29" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.3333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="35.3333333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40.1111111111111" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.2222222222222" style="11" customWidth="1"/>
+    <col min="6" max="6" width="29" style="11" customWidth="1"/>
+    <col min="7" max="7" width="38.3333333333333" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4221,1254 +5470,1119 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="129.6" spans="1:9">
+    <row r="2" ht="86.4" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" ht="129.6" spans="1:9">
+    <row r="3" ht="86.4" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
+      <c r="E3" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" ht="129.6" spans="1:9">
+    <row r="4" ht="86.4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+      <c r="E4" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" ht="129.6" spans="1:9">
+    <row r="5" ht="86.4" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
+      <c r="E5" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" ht="129.6" spans="1:9">
+    <row r="6" ht="86.4" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
+      <c r="E6" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" ht="129.6" spans="1:9">
+    <row r="7" ht="86.4" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
+      <c r="E7" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" ht="129.6" spans="1:8">
+    <row r="8" ht="86.4" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
+      <c r="E8" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="129.6" spans="1:8">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" ht="86.4" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
+      <c r="E9" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="129.6" spans="1:8">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="86.4" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
+      <c r="E10" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="129.6" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" ht="86.4" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
+      <c r="E11" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="129.6" spans="1:8">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" ht="86.4" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="129.6" spans="1:8">
+    <row r="13" ht="86.4" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="129.6" spans="1:8">
+    <row r="14" ht="86.4" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="129.6" spans="1:8">
+    <row r="15" ht="86.4" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="129.6" spans="1:8">
+    <row r="16" ht="86.4" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
+      <c r="E16" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="129.6" spans="1:8">
+    <row r="17" ht="115.2" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
+      <c r="E17" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="129.6" spans="1:8">
+    <row r="18" ht="86.4" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="129.6" spans="1:8">
+    <row r="19" ht="86.4" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
+      <c r="E19" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="129.6" spans="1:8">
+    <row r="20" ht="86.4" spans="1:8">
       <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="86.4" spans="1:8">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="129.6" spans="1:8">
-      <c r="A21" s="1">
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="86.4" spans="1:8">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="129.6" spans="1:8">
-      <c r="A22" s="1">
+      <c r="E22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="86.4" spans="1:8">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="129.6" spans="1:8">
-      <c r="A23" s="1">
+      <c r="E23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="86.4" spans="1:8">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="129.6" spans="1:8">
-      <c r="A24" s="1">
+      <c r="E24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="86.4" spans="1:8">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="129.6" spans="1:8">
-      <c r="A25" s="1">
+      <c r="E25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="86.4" spans="1:8">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="129.6" spans="1:8">
-      <c r="A26" s="1">
+      <c r="E26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="86.4" spans="1:8">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="129.6" spans="1:8">
-      <c r="A27" s="1">
+      <c r="E27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="86.4" spans="1:8">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="129.6" spans="1:8">
-      <c r="A28" s="1">
+      <c r="E28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="86.4" spans="1:8">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="D29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="86.4" spans="1:8">
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="D30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="86.4" spans="1:8">
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="D31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="86.4" spans="1:8">
+      <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B32" s="1"/>
+      <c r="D32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="129.6" spans="1:8">
-      <c r="A29" s="1">
+      <c r="E32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="86.4" spans="1:8">
+      <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B33" s="1"/>
+      <c r="D33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="129.6" spans="1:8">
-      <c r="A30" s="1">
+      <c r="E33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="86.4" spans="1:8">
+      <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B34" s="1"/>
+      <c r="D34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="129.6" spans="1:8">
-      <c r="A31" s="1">
+      <c r="E34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="86.4" spans="1:8">
+      <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="B35" s="1"/>
+      <c r="D35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="129.6" spans="1:8">
-      <c r="A32" s="1">
+      <c r="E35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="86.4" spans="1:8">
+      <c r="A36" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="B36" s="1"/>
+      <c r="D36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="129.6" spans="1:8">
-      <c r="A33" s="1">
+      <c r="E36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="86.4" spans="1:8">
+      <c r="A37" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="B37" s="1"/>
+      <c r="D37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="129.6" spans="1:8">
-      <c r="A34" s="1">
+      <c r="E37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="86.4" spans="1:8">
+      <c r="A38" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B38" s="1"/>
+      <c r="D38" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="129.6" spans="1:8">
-      <c r="A35" s="1">
+      <c r="E38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="86.4" spans="1:8">
+      <c r="A39" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="B39" s="1"/>
+      <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="129.6" spans="1:8">
-      <c r="A36" s="1">
+      <c r="E39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="86.4" spans="1:8">
+      <c r="A40" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="B40" s="1"/>
+      <c r="D40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="129.6" spans="1:8">
-      <c r="A37" s="1">
+      <c r="E40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="86.4" spans="1:8">
+      <c r="A41" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="B41" s="1"/>
+      <c r="D41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="129.6" spans="1:8">
-      <c r="A38" s="1">
+      <c r="E41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="86.4" spans="1:8">
+      <c r="A42" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="B42" s="1"/>
+      <c r="D42" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="129.6" spans="1:8">
-      <c r="A39" s="1">
+      <c r="E42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="86.4" spans="1:8">
+      <c r="A43" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="B43" s="1"/>
+      <c r="D43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="129.6" spans="1:8">
-      <c r="A40" s="1">
+      <c r="E43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="86.4" spans="1:8">
+      <c r="A44" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="B44" s="1"/>
+      <c r="D44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="129.6" spans="1:8">
-      <c r="A41" s="1">
+      <c r="E44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="86.4" spans="1:8">
+      <c r="A45" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="B45" s="1"/>
+      <c r="D45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="129.6" spans="1:8">
-      <c r="A42" s="1">
+      <c r="E45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="86.4" spans="1:8">
+      <c r="A46" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B46" s="1"/>
+      <c r="D46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="129.6" spans="1:8">
-      <c r="A43" s="1">
+      <c r="E46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="86.4" spans="1:8">
+      <c r="A47" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="B47" s="1"/>
+      <c r="D47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="129.6" spans="1:8">
-      <c r="A44" s="1">
+      <c r="E47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="86.4" spans="1:8">
+      <c r="A48" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="B48" s="1"/>
+      <c r="D48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="129.6" spans="1:8">
-      <c r="A45" s="1">
+      <c r="E48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="86.4" spans="1:8">
+      <c r="A49" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="B49" s="1"/>
+      <c r="D49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="129.6" spans="1:8">
-      <c r="A46" s="1">
+      <c r="E49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="86.4" spans="1:8">
+      <c r="A50" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B50" s="1"/>
+      <c r="D50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="129.6" spans="1:8">
-      <c r="A47" s="1">
+      <c r="E50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="86.4" spans="1:8">
+      <c r="A51" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="B51" s="1"/>
+      <c r="D51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="129.6" spans="1:8">
-      <c r="A48" s="1">
+      <c r="E51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="86.4" spans="1:8">
+      <c r="A52" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="B52" s="1"/>
+      <c r="D52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="129.6" spans="2:8">
-      <c r="B49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="E52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="86.4" spans="2:8">
+      <c r="B53" s="1"/>
+      <c r="D53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="E53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="1">
+      <c r="F53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5484,16 +6598,16 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.7777777777778" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.4444444444444" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.7777777777778" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.7777777777778" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" style="11" customWidth="1"/>
+    <col min="3" max="3" width="34.4444444444444" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35" style="11" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" style="11" customWidth="1"/>
+    <col min="7" max="7" width="34.7777777777778" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5533,13 +6647,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>96</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -5548,7 +6662,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -5563,13 +6677,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>99</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -5578,7 +6692,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -5592,13 +6706,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -5607,7 +6721,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -5621,13 +6735,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>159</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -5636,7 +6750,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -5650,13 +6764,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>159</v>
+        <v>105</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -5665,7 +6779,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -5679,13 +6793,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>159</v>
+        <v>107</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -5694,7 +6808,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -5708,13 +6822,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>159</v>
+        <v>109</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -5723,7 +6837,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -5737,13 +6851,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>159</v>
+        <v>111</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -5752,7 +6866,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -5766,13 +6880,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>159</v>
+        <v>113</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -5781,7 +6895,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -5795,13 +6909,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>159</v>
+        <v>115</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -5810,7 +6924,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -5824,13 +6938,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>117</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -5839,7 +6953,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -5853,13 +6967,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>159</v>
+        <v>119</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -5868,7 +6982,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -5882,13 +6996,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>159</v>
+        <v>121</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -5897,7 +7011,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -5911,13 +7025,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -5926,7 +7040,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -5940,13 +7054,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>159</v>
+        <v>125</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -5955,7 +7069,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -5975,17 +7089,17 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="25.6666666666667" style="5" customWidth="1"/>
-    <col min="4" max="4" width="42" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.6666666666667" style="5" customWidth="1"/>
-    <col min="6" max="6" width="32.5555555555556" style="5" customWidth="1"/>
-    <col min="7" max="7" width="29.7777777777778" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.6666666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="42" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="11" customWidth="1"/>
+    <col min="6" max="6" width="32.5555555555556" style="11" customWidth="1"/>
+    <col min="7" max="7" width="29.7777777777778" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1" spans="1:10">
@@ -6025,13 +7139,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>191</v>
+        <v>128</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -6040,7 +7154,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -6055,13 +7169,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>131</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -6070,7 +7184,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -6084,13 +7198,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>133</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -6099,7 +7213,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -6113,13 +7227,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>135</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -6128,7 +7242,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -6142,13 +7256,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>137</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -6157,7 +7271,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -6171,13 +7285,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>139</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -6186,7 +7300,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -6204,14 +7318,501 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="35.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="23.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="29.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="100.8" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="100.8" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="100.8" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="100.8" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="100.8" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="100.8" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="100.8" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="100.8" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="100.8" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="100.8" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="100.8" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="100.8" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="100.8" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="100.8" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="100.8" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="100.8" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6220,14 +7821,739 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="25.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="36.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="32.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="36.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="86.4" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="86.4" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="86.4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="86.4" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="86.4" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="86.4" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="86.4" spans="1:9">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" ht="86.4" spans="1:9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="86.4" spans="1:9">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" ht="86.4" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="86.4" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="86.4" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="86.4" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="86.4" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="86.4" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="86.4" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="86.4" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="86.4" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="86.4" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="86.4" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="86.4" spans="1:8">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="86.4" spans="1:8">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="86.4" spans="1:8">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="86.4" spans="1:8">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="86.4" spans="1:8">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="86.4" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6236,14 +8562,278 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="28.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="59.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="86.4" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="86.4" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="86.4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="86.4" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="86.4" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="86.4" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="86.4" spans="1:9">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" ht="86.4" spans="1:9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="100.8" spans="1:9">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6252,14 +8842,495 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="31.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="73.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="28.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="86.4" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="86.4" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="86.4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="86.4" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="86.4" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="86.4" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="86.4" spans="1:9">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" ht="86.4" spans="1:9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="86.4" spans="1:9">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" ht="86.4" spans="1:9">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" ht="86.4" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="86.4" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="86.4" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="86.4" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="86.4" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="86.4" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="86.4" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="86.4" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/PythonCode/InterfaceTest/resource/excel/cases.xlsx
+++ b/PythonCode/InterfaceTest/resource/excel/cases.xlsx
@@ -1278,11 +1278,11 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>1005</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       <c r="I6" s="1" t="n"/>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
